--- a/results.xlsx
+++ b/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\doc\AESD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{93E4632E-76D3-4F7E-BE9F-01313A42DFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7D502-9984-4BB3-BD34-6A211FE5203B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2265" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3855" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -37,19 +37,13 @@
     <t>LED?</t>
   </si>
   <si>
-    <t>breaks</t>
-  </si>
-  <si>
-    <t>LED? Breaks</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,11 +877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,8 +965,8 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,9 +1001,6 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1029,8 +1020,8 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,8 +1042,8 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,8 +1053,8 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,8 +1064,8 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
+      <c r="C16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,8 +1097,11 @@
       <c r="B19">
         <v>2</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,8 +1111,8 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,8 +1133,8 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\doc\AESD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7D502-9984-4BB3-BD34-6A211FE5203B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCCF486-65D3-4646-9261-4488D323BEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +49,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>? template missing</t>
   </si>
 </sst>
 </file>
@@ -477,7 +491,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -520,11 +534,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -557,6 +573,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percentuale" xfId="42" builtinId="5"/>
     <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -878,18 +895,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -914,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -925,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -936,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -947,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -957,8 +976,9 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -969,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1002,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1013,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1024,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1035,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1095,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1144,6 +1164,9 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1152,6 +1175,9 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1160,6 +1186,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1168,8 +1197,11 @@
       <c r="B26">
         <v>3</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,6 +1211,9 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1187,6 +1222,9 @@
       <c r="B28">
         <v>2</v>
       </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
@@ -1198,8 +1236,8 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>3</v>
+      <c r="C29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,8 +1247,11 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,6 +1261,9 @@
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1228,6 +1272,9 @@
       <c r="B32">
         <v>2</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1236,6 +1283,9 @@
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1244,6 +1294,9 @@
       <c r="B34">
         <v>3</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1252,6 +1305,9 @@
       <c r="B35">
         <v>3</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1260,6 +1316,9 @@
       <c r="B36">
         <v>2</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1268,12 +1327,18 @@
       <c r="B37">
         <v>1</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
@@ -1285,6 +1350,9 @@
         <v>37</v>
       </c>
       <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
@@ -1298,13 +1366,19 @@
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -1317,6 +1391,9 @@
       <c r="B42">
         <v>1</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1324,6 +1401,9 @@
       </c>
       <c r="B43">
         <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
